--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\myworkspace\Opencart_V122\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adith/eclipse-workspace/Nov2024OpenCartFW/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183AAC7-A11B-42AC-B26F-C9AC8D017C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE135EC-B586-5B45-8B90-2DE726506684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="16360" yWindow="500" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Valid</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>RES</t>
+  </si>
+  <si>
+    <t>tester@123</t>
+  </si>
+  <si>
+    <t>testautomation789@email.com</t>
   </si>
 </sst>
 </file>
@@ -192,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,85 +494,85 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="34.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
